--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">NOM</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">NOTE / 20</t>
   </si>
   <si>
+    <t xml:space="preserve">Rang</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moyenne</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t xml:space="preserve">Notes &lt; 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes = 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nb Etd</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">% Notes &lt; 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Notes = 0</t>
   </si>
 </sst>
 </file>
@@ -446,13 +455,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ53"/>
+  <dimension ref="A1:AMJ55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.43"/>
@@ -475,6 +484,9 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -488,6 +500,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="10"/>
+      <c r="F2" s="0" t="n">
+        <f aca="false">RANK($D2, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
@@ -498,6 +514,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
+      <c r="F3" s="0" t="n">
+        <f aca="false">RANK($D3, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
@@ -508,6 +528,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="10"/>
+      <c r="F4" s="0" t="n">
+        <f aca="false">RANK($D4, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -518,6 +542,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
+      <c r="F5" s="0" t="n">
+        <f aca="false">RANK($D5, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -528,6 +556,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="10"/>
+      <c r="F6" s="0" t="n">
+        <f aca="false">RANK($D6, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
@@ -538,6 +570,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="10"/>
+      <c r="F7" s="0" t="n">
+        <f aca="false">RANK($D7, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -548,6 +584,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="10"/>
+      <c r="F8" s="0" t="n">
+        <f aca="false">RANK($D8, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
@@ -558,6 +598,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="10"/>
+      <c r="F9" s="0" t="n">
+        <f aca="false">RANK($D9, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
@@ -568,6 +612,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="10"/>
+      <c r="F10" s="0" t="n">
+        <f aca="false">RANK($D10, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
@@ -578,6 +626,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
+      <c r="F11" s="0" t="n">
+        <f aca="false">RANK($D11, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
@@ -588,6 +640,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="10"/>
+      <c r="F12" s="0" t="n">
+        <f aca="false">RANK($D12, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
@@ -598,6 +654,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="10"/>
+      <c r="F13" s="0" t="n">
+        <f aca="false">RANK($D13, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
@@ -608,6 +668,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="10"/>
+      <c r="F14" s="0" t="n">
+        <f aca="false">RANK($D14, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
@@ -618,6 +682,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="10"/>
+      <c r="F15" s="0" t="n">
+        <f aca="false">RANK($D15, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
@@ -628,6 +696,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="10"/>
+      <c r="F16" s="0" t="n">
+        <f aca="false">RANK($D16, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
@@ -638,6 +710,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="10"/>
+      <c r="F17" s="0" t="n">
+        <f aca="false">RANK($D17, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
@@ -648,6 +724,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="10"/>
+      <c r="F18" s="0" t="n">
+        <f aca="false">RANK($D18, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
@@ -658,6 +738,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="10"/>
+      <c r="F19" s="0" t="n">
+        <f aca="false">RANK($D19, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
@@ -668,6 +752,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="10"/>
+      <c r="F20" s="0" t="n">
+        <f aca="false">RANK($D20, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
@@ -678,6 +766,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="10"/>
+      <c r="F21" s="0" t="n">
+        <f aca="false">RANK($D21, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
@@ -688,6 +780,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="10"/>
+      <c r="F22" s="0" t="n">
+        <f aca="false">RANK($D22, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
@@ -698,6 +794,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="10"/>
+      <c r="F23" s="0" t="n">
+        <f aca="false">RANK($D23, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
@@ -708,6 +808,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="10"/>
+      <c r="F24" s="0" t="n">
+        <f aca="false">RANK($D24, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
@@ -718,6 +822,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="10"/>
+      <c r="F25" s="0" t="n">
+        <f aca="false">RANK($D25, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
@@ -728,6 +836,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="10"/>
+      <c r="F26" s="0" t="n">
+        <f aca="false">RANK($D26, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
@@ -738,6 +850,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="10"/>
+      <c r="F27" s="0" t="n">
+        <f aca="false">RANK($D27, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
@@ -748,6 +864,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="10"/>
+      <c r="F28" s="0" t="n">
+        <f aca="false">RANK($D28, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
@@ -758,6 +878,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="10"/>
+      <c r="F29" s="0" t="n">
+        <f aca="false">RANK($D29, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
@@ -768,6 +892,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="10"/>
+      <c r="F30" s="0" t="n">
+        <f aca="false">RANK($D30, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
@@ -778,6 +906,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="10"/>
+      <c r="F31" s="0" t="n">
+        <f aca="false">RANK($D31, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
@@ -788,6 +920,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="10"/>
+      <c r="F32" s="0" t="n">
+        <f aca="false">RANK($D32, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
@@ -798,6 +934,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="10"/>
+      <c r="F33" s="0" t="n">
+        <f aca="false">RANK($D33, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
@@ -808,6 +948,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="10"/>
+      <c r="F34" s="0" t="n">
+        <f aca="false">RANK($D34, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
@@ -818,6 +962,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="10"/>
+      <c r="F35" s="0" t="n">
+        <f aca="false">RANK($D35, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
@@ -828,6 +976,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="10"/>
+      <c r="F36" s="0" t="n">
+        <f aca="false">RANK($D36, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
@@ -838,10 +990,14 @@
         <v>0</v>
       </c>
       <c r="E37" s="10"/>
+      <c r="F37" s="0" t="n">
+        <f aca="false">RANK($D37, $D$2:$D$37, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="n">
         <f aca="false">SUM(D2:D37) / COUNT(D2:D37)</f>
@@ -854,7 +1010,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="n">
         <f aca="false">MEDIAN(D2:D37)</f>
@@ -867,7 +1023,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="n">
         <f aca="false">_xlfn.STDEV.P(D2:D37)</f>
@@ -880,7 +1036,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="12" t="e">
         <f aca="false">(D41 / D39) * 100</f>
@@ -893,7 +1049,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2" t="n">
         <f aca="false">MIN(D2:D37)</f>
@@ -906,7 +1062,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2" t="n">
         <f aca="false">MAX(D2:D37)</f>
@@ -919,7 +1075,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="13" t="n">
         <f aca="false">COUNTIF(D2:D37, "&gt;=15")</f>
@@ -932,7 +1088,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="13" t="n">
         <f aca="false">COUNTIF(D2:D37, "&gt;=10")</f>
@@ -945,7 +1101,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="14" t="n">
         <f aca="false">COUNTIF(D2:D37, "&lt;10")</f>
@@ -958,7 +1114,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="n">
         <f aca="false">COUNTIF(D2:D37, "&lt;6")</f>
@@ -970,72 +1126,98 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="16" t="n">
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <f aca="false">COUNTIF(D2:D37, "&lt;=0")</f>
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <f aca="false">COUNTIF(E2:E37, "&lt;=0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="16" t="n">
         <f aca="false">COUNT(D2:D37)</f>
         <v>36</v>
       </c>
-      <c r="E49" s="16" t="n">
+      <c r="E50" s="16" t="n">
         <f aca="false">COUNT(E2:E37)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="17" t="n">
-        <f aca="false">(INT(ROUNDUP(D45/D49 * 100,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="17" t="e">
-        <f aca="false">(INT(ROUNDUP(E45/E49 * 100,2)))</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="n">
-        <f aca="false">(INT(ROUNDUP(D46/D49 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(D45/D50 * 100,2)))</f>
         <v>0</v>
       </c>
       <c r="E51" s="17" t="e">
-        <f aca="false">(INT(ROUNDUP(E46/E49 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(E45/E50 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="18" t="s">
-        <v>18</v>
+      <c r="C52" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D52" s="17" t="n">
-        <f aca="false">(INT(ROUNDUP(D47/D49 * 100,2)))</f>
-        <v>100</v>
+        <f aca="false">(INT(ROUNDUP(D46/D50 * 100,2)))</f>
+        <v>0</v>
       </c>
       <c r="E52" s="17" t="e">
-        <f aca="false">(INT(ROUNDUP(E47/E49 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(E46/E50 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" s="17" t="n">
-        <f aca="false">(INT(ROUNDUP(D48/D49 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(D47/D50 * 100,2)))</f>
         <v>100</v>
       </c>
       <c r="E53" s="17" t="e">
-        <f aca="false">(INT(ROUNDUP(E48/E49 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(E47/E50 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="17" t="n">
+        <f aca="false">(INT(ROUNDUP(D48/D50 * 100,2)))</f>
+        <v>100</v>
+      </c>
+      <c r="E54" s="17" t="e">
+        <f aca="false">(INT(ROUNDUP(E48/E50 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="17" t="n">
+        <f aca="false">(INT(ROUNDUP(D49/D50 * 100,2)))</f>
+        <v>100</v>
+      </c>
+      <c r="E55" s="17" t="e">
+        <f aca="false">(INT(ROUNDUP(E49/E50 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:E1048576">
+  <conditionalFormatting sqref="F1 D1:E1048576">
     <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
